--- a/ExcelTools/Test_Files/import sd data1.xlsx
+++ b/ExcelTools/Test_Files/import sd data1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="SDData" sheetId="1" r:id="rId1"/>
@@ -1162,7 +1162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="240">
   <si>
     <t>BATCH:Create Substance from SD File</t>
   </si>
@@ -5577,6 +5577,9 @@
   <si>
     <t>PT</t>
   </si>
+  <si>
+    <t>Uniqueness</t>
+  </si>
 </sst>
 </file>
 
@@ -5924,21 +5927,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="15" width="21.7109375" customWidth="1"/>
+    <col min="2" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="16" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5960,32 +5963,35 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -6005,7 +6011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -6025,7 +6031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -6045,7 +6051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -6065,7 +6071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
@@ -6085,7 +6091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
@@ -6105,7 +6111,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
@@ -6125,7 +6131,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
@@ -6145,7 +6151,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
@@ -6165,7 +6171,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
@@ -6185,7 +6191,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
@@ -6205,7 +6211,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>59</v>
       </c>
@@ -6225,7 +6231,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>64</v>
       </c>
@@ -6245,7 +6251,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>69</v>
       </c>
@@ -6265,7 +6271,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>74</v>
       </c>
@@ -6285,7 +6291,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
@@ -6305,7 +6311,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>84</v>
       </c>
@@ -6325,7 +6331,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>88</v>
       </c>
@@ -6345,7 +6351,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>93</v>
       </c>
@@ -6365,7 +6371,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>98</v>
       </c>
@@ -6385,7 +6391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>102</v>
       </c>
@@ -6405,7 +6411,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>107</v>
       </c>
@@ -6425,7 +6431,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>112</v>
       </c>
@@ -6445,7 +6451,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>117</v>
       </c>
@@ -6465,7 +6471,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>122</v>
       </c>
@@ -6485,7 +6491,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>127</v>
       </c>
@@ -6505,7 +6511,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>132</v>
       </c>
@@ -6525,7 +6531,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>136</v>
       </c>
@@ -6545,7 +6551,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>141</v>
       </c>
@@ -6565,7 +6571,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>146</v>
       </c>
@@ -6585,7 +6591,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>151</v>
       </c>
@@ -6605,7 +6611,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>156</v>
       </c>
@@ -6625,7 +6631,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>160</v>
       </c>
@@ -6645,7 +6651,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>164</v>
       </c>
@@ -6665,7 +6671,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>169</v>
       </c>
@@ -6685,7 +6691,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>174</v>
       </c>
@@ -6705,7 +6711,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>178</v>
       </c>
@@ -6725,7 +6731,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>182</v>
       </c>
@@ -6745,7 +6751,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>187</v>
       </c>
@@ -6765,7 +6771,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>192</v>
       </c>
@@ -6785,7 +6791,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>197</v>
       </c>
@@ -6805,7 +6811,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>202</v>
       </c>
@@ -6825,7 +6831,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>206</v>
       </c>
@@ -6845,7 +6851,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>211</v>
       </c>
@@ -6865,7 +6871,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>215</v>
       </c>
@@ -6885,7 +6891,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>220</v>
       </c>
@@ -6905,7 +6911,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>225</v>
       </c>
